--- a/biology/Botanique/Aramon_blanc/Aramon_blanc.xlsx
+++ b/biology/Botanique/Aramon_blanc/Aramon_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aramon blanc B est un cépage d'origine française de raisins blancs. L'aramon blanc Best une variante de l'aramon N comme l'aramon gris G.
@@ -512,9 +524,11 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cépage est cultivé  principalement dans le vignoble du Languedoc-Roussillon. Il ne restait plus qu'une dizaine d'hectares en 1994[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage est cultivé  principalement dans le vignoble du Languedoc-Roussillon. Il ne restait plus qu'une dizaine d'hectares en 1994.
 Contrairement à la variate rouge, il n'a pas été exporté.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux.
 Jeune feuilles aranéeuses, bullées, jaunâtres sur les bosselures
@@ -577,16 +593,122 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque: 30  jours après le chasselas.
-Aptitudes
-Culturale
-Le cépage est vigoureux et productif. Il donne selon les sols et type de vins de 50 à 70 hl/ha en dans les coteaux  à près de 250  hl/ha dans les bonnes terres en zone de plaine. L’aramon blanc est généralement conduit en gobelet à taille courte. 
-Sensibilité aux maladies
-Il est très sensible à l'excoriose, au mildiou, à la pourriture grise et aux  vers de la grappe, mais assez résistant à l'oïdium. 
-Technologique
-Il donne un vin plat, sans finesse ni arômes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aramon_blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aramon_blanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aptitudes culturales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culturale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage est vigoureux et productif. Il donne selon les sols et type de vins de 50 à 70 hl/ha en dans les coteaux  à près de 250  hl/ha dans les bonnes terres en zone de plaine. L’aramon blanc est généralement conduit en gobelet à taille courte. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aramon_blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aramon_blanc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes culturales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très sensible à l'excoriose, au mildiou, à la pourriture grise et aux  vers de la grappe, mais assez résistant à l'oïdium. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aramon_blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aramon_blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes culturales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technologique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne un vin plat, sans finesse ni arômes.
 </t>
         </is>
       </c>
